--- a/US/data/EIA/PETR/crushed_stone_historical_data.xlsx
+++ b/US/data/EIA/PETR/crushed_stone_historical_data.xlsx
@@ -1109,7 +1109,7 @@
         <v>1470</v>
       </c>
       <c r="DS2" t="n">
-        <v>1540</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
